--- a/products/冲调饮品/茶叶/雅客巴优质草莓茶.xlsx
+++ b/products/冲调饮品/茶叶/雅客巴优质草莓茶.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD36"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
